--- a/data/trans_orig/P36BPD10_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD10_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>36851</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>24391</v>
+        <v>25666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51874</v>
+        <v>51858</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06692645376741416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04429781464374385</v>
+        <v>0.04661297009310347</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09421046023097596</v>
+        <v>0.09418180363820386</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -762,19 +762,19 @@
         <v>40156</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30635</v>
+        <v>30611</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51958</v>
+        <v>53601</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08221826276055935</v>
+        <v>0.08221826276055934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06272436439762116</v>
+        <v>0.06267393032154492</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1063820532672349</v>
+        <v>0.1097449161800662</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -783,19 +783,19 @@
         <v>77007</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62071</v>
+        <v>62414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97658</v>
+        <v>97864</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07411459277352134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05973954633458368</v>
+        <v>0.06006970913122036</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09398963150627683</v>
+        <v>0.09418788215715404</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>229645</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>205959</v>
+        <v>204222</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>253414</v>
+        <v>255018</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.417067310932763</v>
+        <v>0.4170673109327629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3740499979708418</v>
+        <v>0.3708963707096055</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4602358165082919</v>
+        <v>0.4631477982473913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -833,19 +833,19 @@
         <v>187371</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169139</v>
+        <v>168757</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>206885</v>
+        <v>205408</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3836344908940499</v>
+        <v>0.3836344908940498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3463055755120961</v>
+        <v>0.3455220342420917</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4235878516431771</v>
+        <v>0.420563093106279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>480</v>
@@ -854,19 +854,19 @@
         <v>417016</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382222</v>
+        <v>386541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>447468</v>
+        <v>446462</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4013517237244633</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3678646581386399</v>
+        <v>0.3720209161878235</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4306595907613949</v>
+        <v>0.429691539133662</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>284122</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>259891</v>
+        <v>260771</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>309834</v>
+        <v>308364</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5160062352998229</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4719984288700953</v>
+        <v>0.4735968484287905</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5627029816457751</v>
+        <v>0.5600324545629566</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>379</v>
@@ -904,19 +904,19 @@
         <v>260883</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>240181</v>
+        <v>242024</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>279650</v>
+        <v>279839</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5341472463453908</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4917595825626359</v>
+        <v>0.4955342421980879</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5725709570411167</v>
+        <v>0.5729571152582301</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>677</v>
@@ -925,19 +925,19 @@
         <v>545006</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>513421</v>
+        <v>512371</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>577394</v>
+        <v>575641</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5245336835020155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4941356229819334</v>
+        <v>0.4931245141745419</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5557051105893983</v>
+        <v>0.5540181837866965</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>52893</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39986</v>
+        <v>40687</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68913</v>
+        <v>70934</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1094607249385603</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08275012997293599</v>
+        <v>0.08420204367331102</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1426137180056769</v>
+        <v>0.1467962090991109</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1050,19 +1050,19 @@
         <v>38920</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28831</v>
+        <v>29668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50922</v>
+        <v>52289</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.09197788121560402</v>
+        <v>0.091977881215604</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06813482863807754</v>
+        <v>0.07011426656446473</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1203426946943054</v>
+        <v>0.1235721372491906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -1071,19 +1071,19 @@
         <v>91813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>74346</v>
+        <v>74682</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>113373</v>
+        <v>111733</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1012986467433802</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08202718664731215</v>
+        <v>0.08239857769286341</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1250871416767353</v>
+        <v>0.1232772758907884</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>228572</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>207013</v>
+        <v>207651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>249039</v>
+        <v>252523</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4730273040907828</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4284095046672525</v>
+        <v>0.4297314537350497</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5153828193411051</v>
+        <v>0.5225921166966573</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>237</v>
@@ -1121,19 +1121,19 @@
         <v>175962</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>158971</v>
+        <v>159235</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>194595</v>
+        <v>193848</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4158454105270137</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3756901583657016</v>
+        <v>0.3763152236028644</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4598810247709305</v>
+        <v>0.4581151631890915</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>453</v>
@@ -1142,19 +1142,19 @@
         <v>404535</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>377094</v>
+        <v>375229</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>435300</v>
+        <v>433293</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4463312417103185</v>
+        <v>0.4463312417103184</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4160557738344002</v>
+        <v>0.4139973792984727</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.480275036481465</v>
+        <v>0.4780614127758771</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>201747</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182284</v>
+        <v>179765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223362</v>
+        <v>224913</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.417511970970657</v>
+        <v>0.4175119709706569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3772337035482133</v>
+        <v>0.372021543611715</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4622438296460214</v>
+        <v>0.4654539216535691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>305</v>
@@ -1192,19 +1192,19 @@
         <v>208261</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>189972</v>
+        <v>190018</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>226329</v>
+        <v>224711</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4921767082573822</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4489543740353845</v>
+        <v>0.4490625415952718</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5348752763197637</v>
+        <v>0.5310518212978068</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>522</v>
@@ -1213,19 +1213,19 @@
         <v>410008</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>381515</v>
+        <v>381654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>436337</v>
+        <v>440816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4523701115463015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4209335304655735</v>
+        <v>0.4210862045667759</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4814195001090553</v>
+        <v>0.4863608600037129</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>53942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40140</v>
+        <v>39414</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71366</v>
+        <v>69447</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1145880977409623</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08526988577490531</v>
+        <v>0.08372760798178319</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1516028620199916</v>
+        <v>0.1475245661089207</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1338,19 +1338,19 @@
         <v>13917</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8900</v>
+        <v>8783</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22293</v>
+        <v>21178</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07422411064462142</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04747005307272745</v>
+        <v>0.04684222790566186</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1188964458271399</v>
+        <v>0.1129523622648637</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>69</v>
@@ -1359,19 +1359,19 @@
         <v>67859</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52544</v>
+        <v>54591</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84509</v>
+        <v>87152</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1030906256107351</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07982513208560474</v>
+        <v>0.0829340440694821</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1283860728203193</v>
+        <v>0.1324004146819125</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>211113</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187390</v>
+        <v>188897</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234831</v>
+        <v>232660</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4484653176375591</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3980708889288648</v>
+        <v>0.4012721855258322</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4988484370192509</v>
+        <v>0.4942371051279896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -1409,19 +1409,19 @@
         <v>81058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70162</v>
+        <v>69453</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92738</v>
+        <v>93260</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4323183556852114</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3742030294941631</v>
+        <v>0.3704200217049041</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4946129580505039</v>
+        <v>0.4973961828745758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>337</v>
@@ -1430,19 +1430,19 @@
         <v>292172</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266629</v>
+        <v>266627</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>315238</v>
+        <v>316306</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.4438659393701979</v>
+        <v>0.443865939370198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4050611896053438</v>
+        <v>0.4050579767711273</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4789089549953707</v>
+        <v>0.4805300998630556</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>205691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>185119</v>
+        <v>185193</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>229466</v>
+        <v>226706</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4369465846214785</v>
+        <v>0.4369465846214786</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3932468202417139</v>
+        <v>0.3934038161253853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.487452004183941</v>
+        <v>0.4815885385279669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -1480,19 +1480,19 @@
         <v>92522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81127</v>
+        <v>80798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103864</v>
+        <v>104137</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4934575336701672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4326838114122251</v>
+        <v>0.4309313193414698</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5539506443819205</v>
+        <v>0.5554069336179793</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>370</v>
@@ -1501,19 +1501,19 @@
         <v>298213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>274155</v>
+        <v>275371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>323668</v>
+        <v>323871</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4530434350190668</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4164953900115863</v>
+        <v>0.4183428784588556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.491714902586077</v>
+        <v>0.492024013462545</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>97029</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76907</v>
+        <v>77740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>121010</v>
+        <v>121387</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0857796370931712</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06799065007524623</v>
+        <v>0.06872658265978843</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1069801060029814</v>
+        <v>0.1073139283486274</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1626,19 +1626,19 @@
         <v>77450</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61891</v>
+        <v>63660</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93341</v>
+        <v>93473</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08997511485766692</v>
+        <v>0.08997511485766693</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0719002586578105</v>
+        <v>0.07395529559510254</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.108436058084748</v>
+        <v>0.1085893152025252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>178</v>
@@ -1647,19 +1647,19 @@
         <v>174479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148158</v>
+        <v>149192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>202605</v>
+        <v>202493</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08759266923319455</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07437878026489669</v>
+        <v>0.07489805427299044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1017126906065161</v>
+        <v>0.1016563293422548</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>533111</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>494669</v>
+        <v>500243</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>566833</v>
+        <v>571741</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4713025403827698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4373175654040728</v>
+        <v>0.4422458282660234</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5011151770535638</v>
+        <v>0.5054541690185543</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>493</v>
@@ -1697,19 +1697,19 @@
         <v>363333</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>337129</v>
+        <v>337566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388495</v>
+        <v>387069</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4220897935429426</v>
+        <v>0.4220897935429427</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3916483926608047</v>
+        <v>0.3921564299143758</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4513206325435372</v>
+        <v>0.4496647977799642</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1017</v>
@@ -1718,19 +1718,19 @@
         <v>896443</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>851225</v>
+        <v>853265</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>938703</v>
+        <v>942654</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4500357629791326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4273350641250909</v>
+        <v>0.4283590769057629</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4712512092496141</v>
+        <v>0.4732347988660644</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>501003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>467075</v>
+        <v>467344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>539743</v>
+        <v>537839</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4429178225240591</v>
+        <v>0.442917822524059</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4129234489357956</v>
+        <v>0.4131604589489458</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4771663710664028</v>
+        <v>0.4754828346397402</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>640</v>
@@ -1768,19 +1768,19 @@
         <v>420012</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>395301</v>
+        <v>395966</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>446428</v>
+        <v>446574</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4879350915993903</v>
+        <v>0.4879350915993905</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4592276475175873</v>
+        <v>0.4599999993400948</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.518622894680812</v>
+        <v>0.5187920336678197</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1151</v>
@@ -1789,19 +1789,19 @@
         <v>921015</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>881610</v>
+        <v>875881</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>967813</v>
+        <v>964034</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4623715677876728</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4425888486765173</v>
+        <v>0.4397129823097484</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4858652697338323</v>
+        <v>0.4839679805406509</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>57503</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45888</v>
+        <v>44052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74019</v>
+        <v>73322</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1017052014040489</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08116232428683483</v>
+        <v>0.07791399092811889</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1309173610152795</v>
+        <v>0.1296851971914686</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -1914,19 +1914,19 @@
         <v>62628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50802</v>
+        <v>50971</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75172</v>
+        <v>76942</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0754474090922462</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06120087143849012</v>
+        <v>0.06140408095433571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09055801982843467</v>
+        <v>0.09269098828287779</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>151</v>
@@ -1935,19 +1935,19 @@
         <v>120131</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102135</v>
+        <v>101022</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>139642</v>
+        <v>138591</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.08608592658621277</v>
+        <v>0.08608592658621278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07319012854946519</v>
+        <v>0.07239256039283685</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1000673647492032</v>
+        <v>0.09931444108333834</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>313143</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>287877</v>
+        <v>286825</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>339494</v>
+        <v>340086</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5538559355987963</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5091679457267466</v>
+        <v>0.5073068267589907</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6004617409636989</v>
+        <v>0.6015084876842975</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>640</v>
@@ -1985,19 +1985,19 @@
         <v>418930</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>395240</v>
+        <v>396192</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>444260</v>
+        <v>444048</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5046779808477838</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4761393397018245</v>
+        <v>0.4772866840556422</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5351925404126435</v>
+        <v>0.5349378432729421</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>944</v>
@@ -2006,19 +2006,19 @@
         <v>732073</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>692751</v>
+        <v>693887</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>764371</v>
+        <v>764780</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.5246027531105676</v>
+        <v>0.5246027531105675</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4964243248397355</v>
+        <v>0.4972382459007892</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.547747269303552</v>
+        <v>0.5480404447770021</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>194742</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>172136</v>
+        <v>169615</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>221401</v>
+        <v>221728</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3444388629971547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3044569813368698</v>
+        <v>0.2999971525727383</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3915917324406564</v>
+        <v>0.3921701624200338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>556</v>
@@ -2056,19 +2056,19 @@
         <v>348535</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>323317</v>
+        <v>325173</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>371228</v>
+        <v>372916</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.41987461005997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3894946205678892</v>
+        <v>0.3917303386830595</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.447212804662678</v>
+        <v>0.4492462336776701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>739</v>
@@ -2077,19 +2077,19 @@
         <v>543277</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>509017</v>
+        <v>510331</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>581496</v>
+        <v>578509</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3893113203032196</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3647609052937762</v>
+        <v>0.3657024803073458</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4166991715414414</v>
+        <v>0.4145592035914256</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>36142</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>19827</v>
+        <v>21901</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>57790</v>
+        <v>57303</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1523514056685609</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08357821818010314</v>
+        <v>0.09231897984406152</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2436072762518262</v>
+        <v>0.2415519613980882</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>115</v>
@@ -2202,19 +2202,19 @@
         <v>92664</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>75569</v>
+        <v>74522</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>111995</v>
+        <v>110917</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1098445086791164</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08957968525260536</v>
+        <v>0.08833922360424194</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1327598825247886</v>
+        <v>0.131482592099933</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>131</v>
@@ -2223,19 +2223,19 @@
         <v>128806</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>106107</v>
+        <v>105285</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>156724</v>
+        <v>156342</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1191743081132129</v>
+        <v>0.119174308113213</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09817318068045362</v>
+        <v>0.09741220409873921</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1450053425963588</v>
+        <v>0.144651431430619</v>
       </c>
     </row>
     <row r="25">
@@ -2252,19 +2252,19 @@
         <v>113291</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88839</v>
+        <v>90699</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>138470</v>
+        <v>138328</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4775608468680672</v>
+        <v>0.477560846868067</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3744895082158977</v>
+        <v>0.3823304185532794</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5837004464847048</v>
+        <v>0.5830995805884852</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>595</v>
@@ -2273,19 +2273,19 @@
         <v>445383</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>415590</v>
+        <v>419872</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>472224</v>
+        <v>477245</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.5279612532080215</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4926449558104706</v>
+        <v>0.4977209764599145</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5597786309256909</v>
+        <v>0.5657309805407684</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>652</v>
@@ -2294,19 +2294,19 @@
         <v>558674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>523207</v>
+        <v>521745</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>596426</v>
+        <v>592799</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5168989147205634</v>
+        <v>0.5168989147205635</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4840840390045796</v>
+        <v>0.4827314693743695</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5518282344132415</v>
+        <v>0.5484726499284036</v>
       </c>
     </row>
     <row r="26">
@@ -2323,19 +2323,19 @@
         <v>87795</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>64363</v>
+        <v>65203</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115000</v>
+        <v>114043</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.370087747463372</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2713127319644168</v>
+        <v>0.2748553922894831</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4847645536013098</v>
+        <v>0.4807300910575502</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>448</v>
@@ -2344,19 +2344,19 @@
         <v>305543</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>278356</v>
+        <v>278266</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>332314</v>
+        <v>333060</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3621942381128622</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.329965737742971</v>
+        <v>0.329859858300764</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3939288872702849</v>
+        <v>0.3948125685079018</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>487</v>
@@ -2365,19 +2365,19 @@
         <v>393339</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>355731</v>
+        <v>358809</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>427372</v>
+        <v>429325</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3639267771662235</v>
+        <v>0.3639267771662236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3291310798052163</v>
+        <v>0.3319788872113379</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3954157705939426</v>
+        <v>0.3972222438455252</v>
       </c>
     </row>
     <row r="27">
@@ -2469,19 +2469,19 @@
         <v>334359</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>296101</v>
+        <v>296877</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>375463</v>
+        <v>375508</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09724459054216956</v>
+        <v>0.09724459054216955</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08611753073551627</v>
+        <v>0.08634313476242285</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1091989769237482</v>
+        <v>0.1092122480917627</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>424</v>
@@ -2490,19 +2490,19 @@
         <v>325735</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>295782</v>
+        <v>296563</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>357863</v>
+        <v>358822</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08964704170841507</v>
+        <v>0.08964704170841506</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08140362837665145</v>
+        <v>0.08161835290085734</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09848896760014182</v>
+        <v>0.09875290618491978</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>708</v>
@@ -2511,19 +2511,19 @@
         <v>660095</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>605157</v>
+        <v>607586</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>713042</v>
+        <v>716234</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0933409643689862</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08557245769791408</v>
+        <v>0.08591594194170815</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1008279596834249</v>
+        <v>0.1012793500042445</v>
       </c>
     </row>
     <row r="29">
@@ -2540,19 +2540,19 @@
         <v>1628875</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1568492</v>
+        <v>1570415</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1693136</v>
+        <v>1698221</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4737395803274634</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4561777488001704</v>
+        <v>0.4567369823915612</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.492428935246735</v>
+        <v>0.4939078493299725</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2340</v>
@@ -2561,19 +2561,19 @@
         <v>1672037</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1617578</v>
+        <v>1614086</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1725904</v>
+        <v>1722562</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.4601689048587638</v>
+        <v>0.4601689048587637</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4451808780115009</v>
+        <v>0.4442198818397743</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4749937886238474</v>
+        <v>0.4740740458657671</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3883</v>
@@ -2582,19 +2582,19 @@
         <v>3300912</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3216482</v>
+        <v>3218599</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3386752</v>
+        <v>3386536</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4667669573004108</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4548279855813766</v>
+        <v>0.4551274115699755</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4789051446228546</v>
+        <v>0.4788745632647405</v>
       </c>
     </row>
     <row r="30">
@@ -2611,19 +2611,19 @@
         <v>1475100</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1410588</v>
+        <v>1409520</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1537951</v>
+        <v>1540379</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.429015829130367</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4102531937535839</v>
+        <v>0.4099426289768759</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4472953764899976</v>
+        <v>0.4480013570469558</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2477</v>
@@ -2632,19 +2632,19 @@
         <v>1635757</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1582159</v>
+        <v>1585026</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1691491</v>
+        <v>1692246</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.4501840534328212</v>
+        <v>0.4501840534328211</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4354330417805761</v>
+        <v>0.4362222822186569</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4655228266024229</v>
+        <v>0.4657305693002903</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3946</v>
@@ -2653,19 +2653,19 @@
         <v>3110857</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3024350</v>
+        <v>3029273</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3192214</v>
+        <v>3197479</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.4398920783306031</v>
+        <v>0.439892078330603</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4276594663240099</v>
+        <v>0.4283556555979528</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4513963724818672</v>
+        <v>0.4521409119750742</v>
       </c>
     </row>
     <row r="31">
